--- a/Excel/reporte_productos.xlsx
+++ b/Excel/reporte_productos.xlsx
@@ -1130,7 +1130,7 @@
   <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A216" sqref="A216:I216"/>
+      <selection activeCell="A133" sqref="A133:I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1188,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>260</v>
@@ -1211,9 +1211,7 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>38</v>
-      </c>
+      <c r="D6"/>
       <c r="E6">
         <v>580</v>
       </c>
@@ -1235,9 +1233,7 @@
       <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
+      <c r="D7"/>
       <c r="E7">
         <v>59</v>
       </c>
@@ -1259,9 +1255,7 @@
       <c r="C8">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
+      <c r="D8"/>
       <c r="E8">
         <v>59</v>
       </c>
@@ -1283,9 +1277,7 @@
       <c r="C9">
         <v>10</v>
       </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
+      <c r="D9"/>
       <c r="E9">
         <v>59</v>
       </c>
@@ -1307,9 +1299,7 @@
       <c r="C10">
         <v>10</v>
       </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
+      <c r="D10"/>
       <c r="E10">
         <v>59</v>
       </c>
@@ -1331,9 +1321,7 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
+      <c r="D11"/>
       <c r="E11">
         <v>156</v>
       </c>
@@ -1355,9 +1343,7 @@
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
+      <c r="D12"/>
       <c r="E12">
         <v>189</v>
       </c>
@@ -1370,29 +1356,26 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>100</v>
       </c>
-      <c r="D13" s="3">
-        <v>100</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13"/>
+      <c r="E13">
         <v>32</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="F13"/>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
@@ -1404,9 +1387,7 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
+      <c r="D14"/>
       <c r="E14">
         <v>160</v>
       </c>
@@ -1428,9 +1409,7 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
+      <c r="D15"/>
       <c r="E15">
         <v>82</v>
       </c>
@@ -1452,9 +1431,7 @@
       <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
+      <c r="D16"/>
       <c r="E16">
         <v>20</v>
       </c>
@@ -1476,9 +1453,7 @@
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
+      <c r="D17"/>
       <c r="E17">
         <v>51</v>
       </c>
@@ -1500,9 +1475,7 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
+      <c r="D18"/>
       <c r="E18">
         <v>0</v>
       </c>
@@ -1524,9 +1497,7 @@
       <c r="C19">
         <v>10</v>
       </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
+      <c r="D19"/>
       <c r="E19">
         <v>400</v>
       </c>
@@ -1548,9 +1519,7 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
+      <c r="D20"/>
       <c r="E20">
         <v>365</v>
       </c>
@@ -1572,9 +1541,7 @@
       <c r="C21">
         <v>5</v>
       </c>
-      <c r="D21">
-        <v>100</v>
-      </c>
+      <c r="D21"/>
       <c r="E21">
         <v>32</v>
       </c>
@@ -1596,9 +1563,7 @@
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22">
-        <v>100</v>
-      </c>
+      <c r="D22"/>
       <c r="E22">
         <v>34</v>
       </c>
@@ -1620,9 +1585,7 @@
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23">
-        <v>100</v>
-      </c>
+      <c r="D23"/>
       <c r="E23">
         <v>0</v>
       </c>
@@ -1644,9 +1607,7 @@
       <c r="C24">
         <v>5</v>
       </c>
-      <c r="D24">
-        <v>100</v>
-      </c>
+      <c r="D24"/>
       <c r="E24">
         <v>0</v>
       </c>
@@ -1668,9 +1629,7 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>100</v>
-      </c>
+      <c r="D25"/>
       <c r="E25">
         <v>0</v>
       </c>
@@ -1692,9 +1651,7 @@
       <c r="C26">
         <v>10</v>
       </c>
-      <c r="D26">
-        <v>100</v>
-      </c>
+      <c r="D26"/>
       <c r="E26">
         <v>35</v>
       </c>
@@ -1716,9 +1673,7 @@
       <c r="C27">
         <v>50</v>
       </c>
-      <c r="D27">
-        <v>100</v>
-      </c>
+      <c r="D27"/>
       <c r="E27">
         <v>120</v>
       </c>
@@ -1731,79 +1686,70 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="3">
+      <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>100</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28"/>
+      <c r="E28">
+        <v>56</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29">
         <v>100</v>
       </c>
-      <c r="E28" s="3">
-        <v>56</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="3" t="s">
+      <c r="D29"/>
+      <c r="E29">
+        <v>46</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="3">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="3">
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30">
         <v>100</v>
       </c>
-      <c r="D29" s="3">
-        <v>100</v>
-      </c>
-      <c r="E29" s="3">
-        <v>46</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="D30"/>
+      <c r="E30">
+        <v>75</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="3">
-        <v>26</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="3">
-        <v>100</v>
-      </c>
-      <c r="D30" s="3">
-        <v>100</v>
-      </c>
-      <c r="E30" s="3">
-        <v>75</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
@@ -1815,9 +1761,7 @@
       <c r="C31">
         <v>50</v>
       </c>
-      <c r="D31">
-        <v>100</v>
-      </c>
+      <c r="D31"/>
       <c r="E31">
         <v>96</v>
       </c>
@@ -1839,9 +1783,7 @@
       <c r="C32">
         <v>50</v>
       </c>
-      <c r="D32">
-        <v>100</v>
-      </c>
+      <c r="D32"/>
       <c r="E32">
         <v>150</v>
       </c>
@@ -1863,9 +1805,7 @@
       <c r="C33">
         <v>50</v>
       </c>
-      <c r="D33">
-        <v>100</v>
-      </c>
+      <c r="D33"/>
       <c r="E33">
         <v>115</v>
       </c>
@@ -1878,79 +1818,70 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="3">
+      <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>100</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34"/>
+      <c r="E34">
+        <v>48</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
         <v>100</v>
       </c>
-      <c r="E34" s="3">
-        <v>48</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="3" t="s">
+      <c r="D35"/>
+      <c r="E35">
+        <v>38</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="3">
-        <v>31</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="3">
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
         <v>100</v>
       </c>
-      <c r="D35" s="3">
-        <v>100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>38</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="3" t="s">
+      <c r="D36"/>
+      <c r="E36">
+        <v>28</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="3">
-        <v>32</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="3">
-        <v>100</v>
-      </c>
-      <c r="D36" s="3">
-        <v>100</v>
-      </c>
-      <c r="E36" s="3">
-        <v>28</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
@@ -1962,9 +1893,7 @@
       <c r="C37">
         <v>50</v>
       </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
+      <c r="D37"/>
       <c r="E37">
         <v>50</v>
       </c>
@@ -1986,9 +1915,7 @@
       <c r="C38">
         <v>50</v>
       </c>
-      <c r="D38">
-        <v>100</v>
-      </c>
+      <c r="D38"/>
       <c r="E38">
         <v>69</v>
       </c>
@@ -2010,9 +1937,7 @@
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39">
-        <v>100</v>
-      </c>
+      <c r="D39"/>
       <c r="E39">
         <v>115</v>
       </c>
@@ -2034,9 +1959,7 @@
       <c r="C40">
         <v>5</v>
       </c>
-      <c r="D40">
-        <v>100</v>
-      </c>
+      <c r="D40"/>
       <c r="E40">
         <v>250</v>
       </c>
@@ -2058,9 +1981,7 @@
       <c r="C41">
         <v>5</v>
       </c>
-      <c r="D41">
-        <v>100</v>
-      </c>
+      <c r="D41"/>
       <c r="E41">
         <v>250</v>
       </c>
@@ -2082,9 +2003,7 @@
       <c r="C42">
         <v>5</v>
       </c>
-      <c r="D42">
-        <v>100</v>
-      </c>
+      <c r="D42"/>
       <c r="E42">
         <v>250</v>
       </c>
@@ -2106,9 +2025,7 @@
       <c r="C43">
         <v>5</v>
       </c>
-      <c r="D43">
-        <v>100</v>
-      </c>
+      <c r="D43"/>
       <c r="E43">
         <v>250</v>
       </c>
@@ -2130,9 +2047,7 @@
       <c r="C44">
         <v>5</v>
       </c>
-      <c r="D44">
-        <v>100</v>
-      </c>
+      <c r="D44"/>
       <c r="E44">
         <v>250</v>
       </c>
@@ -2154,9 +2069,7 @@
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="D45">
-        <v>100</v>
-      </c>
+      <c r="D45"/>
       <c r="E45">
         <v>480</v>
       </c>
@@ -2178,9 +2091,7 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="D46">
-        <v>100</v>
-      </c>
+      <c r="D46"/>
       <c r="E46">
         <v>115</v>
       </c>
@@ -2202,9 +2113,7 @@
       <c r="C47">
         <v>5</v>
       </c>
-      <c r="D47">
-        <v>100</v>
-      </c>
+      <c r="D47"/>
       <c r="E47">
         <v>340</v>
       </c>
@@ -2226,9 +2135,7 @@
       <c r="C48">
         <v>5</v>
       </c>
-      <c r="D48">
-        <v>100</v>
-      </c>
+      <c r="D48"/>
       <c r="E48">
         <v>420</v>
       </c>
@@ -2250,9 +2157,7 @@
       <c r="C49">
         <v>40</v>
       </c>
-      <c r="D49">
-        <v>100</v>
-      </c>
+      <c r="D49"/>
       <c r="E49">
         <v>58</v>
       </c>
@@ -2274,9 +2179,7 @@
       <c r="C50">
         <v>10</v>
       </c>
-      <c r="D50">
-        <v>100</v>
-      </c>
+      <c r="D50"/>
       <c r="E50">
         <v>90</v>
       </c>
@@ -2298,9 +2201,7 @@
       <c r="C51">
         <v>10</v>
       </c>
-      <c r="D51">
-        <v>100</v>
-      </c>
+      <c r="D51"/>
       <c r="E51">
         <v>90</v>
       </c>
@@ -2322,9 +2223,7 @@
       <c r="C52">
         <v>10</v>
       </c>
-      <c r="D52">
-        <v>100</v>
-      </c>
+      <c r="D52"/>
       <c r="E52">
         <v>150</v>
       </c>
@@ -2346,9 +2245,7 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53">
-        <v>100</v>
-      </c>
+      <c r="D53"/>
       <c r="E53">
         <v>35</v>
       </c>
@@ -2370,9 +2267,7 @@
       <c r="C54">
         <v>5</v>
       </c>
-      <c r="D54">
-        <v>100</v>
-      </c>
+      <c r="D54"/>
       <c r="E54">
         <v>250</v>
       </c>
@@ -2394,9 +2289,7 @@
       <c r="C55">
         <v>5</v>
       </c>
-      <c r="D55">
-        <v>100</v>
-      </c>
+      <c r="D55"/>
       <c r="E55">
         <v>250</v>
       </c>
@@ -2418,9 +2311,7 @@
       <c r="C56">
         <v>5</v>
       </c>
-      <c r="D56">
-        <v>100</v>
-      </c>
+      <c r="D56"/>
       <c r="E56">
         <v>160</v>
       </c>
@@ -2442,9 +2333,7 @@
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57">
-        <v>100</v>
-      </c>
+      <c r="D57"/>
       <c r="E57">
         <v>0</v>
       </c>
@@ -2466,9 +2355,7 @@
       <c r="C58">
         <v>5</v>
       </c>
-      <c r="D58">
-        <v>100</v>
-      </c>
+      <c r="D58"/>
       <c r="E58">
         <v>0</v>
       </c>
@@ -2490,9 +2377,7 @@
       <c r="C59">
         <v>5</v>
       </c>
-      <c r="D59">
-        <v>100</v>
-      </c>
+      <c r="D59"/>
       <c r="E59">
         <v>0</v>
       </c>
@@ -2514,9 +2399,7 @@
       <c r="C60">
         <v>5</v>
       </c>
-      <c r="D60">
-        <v>100</v>
-      </c>
+      <c r="D60"/>
       <c r="E60">
         <v>37</v>
       </c>
@@ -2538,9 +2421,7 @@
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="D61">
-        <v>100</v>
-      </c>
+      <c r="D61"/>
       <c r="E61">
         <v>0</v>
       </c>
@@ -2562,9 +2443,7 @@
       <c r="C62">
         <v>0</v>
       </c>
-      <c r="D62">
-        <v>100</v>
-      </c>
+      <c r="D62"/>
       <c r="E62">
         <v>0</v>
       </c>
@@ -2586,9 +2465,7 @@
       <c r="C63">
         <v>5</v>
       </c>
-      <c r="D63">
-        <v>100</v>
-      </c>
+      <c r="D63"/>
       <c r="E63">
         <v>780</v>
       </c>
@@ -2610,9 +2487,7 @@
       <c r="C64">
         <v>5</v>
       </c>
-      <c r="D64">
-        <v>100</v>
-      </c>
+      <c r="D64"/>
       <c r="E64">
         <v>920</v>
       </c>
@@ -2634,9 +2509,7 @@
       <c r="C65">
         <v>5</v>
       </c>
-      <c r="D65">
-        <v>100</v>
-      </c>
+      <c r="D65"/>
       <c r="E65">
         <v>198</v>
       </c>
@@ -2658,9 +2531,7 @@
       <c r="C66">
         <v>5</v>
       </c>
-      <c r="D66">
-        <v>100</v>
-      </c>
+      <c r="D66"/>
       <c r="E66">
         <v>110</v>
       </c>
@@ -2682,9 +2553,7 @@
       <c r="C67">
         <v>5</v>
       </c>
-      <c r="D67">
-        <v>100</v>
-      </c>
+      <c r="D67"/>
       <c r="E67">
         <v>120</v>
       </c>
@@ -2706,9 +2575,7 @@
       <c r="C68">
         <v>5</v>
       </c>
-      <c r="D68">
-        <v>100</v>
-      </c>
+      <c r="D68"/>
       <c r="E68">
         <v>90</v>
       </c>
@@ -2730,9 +2597,7 @@
       <c r="C69">
         <v>5</v>
       </c>
-      <c r="D69">
-        <v>100</v>
-      </c>
+      <c r="D69"/>
       <c r="E69">
         <v>0</v>
       </c>
@@ -2754,9 +2619,7 @@
       <c r="C70">
         <v>5</v>
       </c>
-      <c r="D70">
-        <v>100</v>
-      </c>
+      <c r="D70"/>
       <c r="E70">
         <v>200</v>
       </c>
@@ -2778,9 +2641,7 @@
       <c r="C71">
         <v>5</v>
       </c>
-      <c r="D71">
-        <v>100</v>
-      </c>
+      <c r="D71"/>
       <c r="E71">
         <v>150</v>
       </c>
@@ -2802,9 +2663,7 @@
       <c r="C72">
         <v>5</v>
       </c>
-      <c r="D72">
-        <v>100</v>
-      </c>
+      <c r="D72"/>
       <c r="E72">
         <v>0</v>
       </c>
@@ -2826,9 +2685,7 @@
       <c r="C73">
         <v>5</v>
       </c>
-      <c r="D73">
-        <v>100</v>
-      </c>
+      <c r="D73"/>
       <c r="E73">
         <v>220</v>
       </c>
@@ -2850,9 +2707,7 @@
       <c r="C74">
         <v>5</v>
       </c>
-      <c r="D74">
-        <v>100</v>
-      </c>
+      <c r="D74"/>
       <c r="E74">
         <v>160</v>
       </c>
@@ -2874,9 +2729,7 @@
       <c r="C75">
         <v>5</v>
       </c>
-      <c r="D75">
-        <v>100</v>
-      </c>
+      <c r="D75"/>
       <c r="E75">
         <v>55</v>
       </c>
@@ -2898,9 +2751,7 @@
       <c r="C76">
         <v>5</v>
       </c>
-      <c r="D76">
-        <v>100</v>
-      </c>
+      <c r="D76"/>
       <c r="E76">
         <v>70</v>
       </c>
@@ -2922,9 +2773,7 @@
       <c r="C77">
         <v>5</v>
       </c>
-      <c r="D77">
-        <v>100</v>
-      </c>
+      <c r="D77"/>
       <c r="E77">
         <v>75</v>
       </c>
@@ -2946,9 +2795,7 @@
       <c r="C78">
         <v>5</v>
       </c>
-      <c r="D78">
-        <v>100</v>
-      </c>
+      <c r="D78"/>
       <c r="E78">
         <v>0</v>
       </c>
@@ -2970,9 +2817,7 @@
       <c r="C79">
         <v>5</v>
       </c>
-      <c r="D79">
-        <v>100</v>
-      </c>
+      <c r="D79"/>
       <c r="E79">
         <v>180</v>
       </c>
@@ -2994,9 +2839,7 @@
       <c r="C80">
         <v>5</v>
       </c>
-      <c r="D80">
-        <v>100</v>
-      </c>
+      <c r="D80"/>
       <c r="E80">
         <v>88</v>
       </c>
@@ -3018,9 +2861,7 @@
       <c r="C81">
         <v>5</v>
       </c>
-      <c r="D81">
-        <v>100</v>
-      </c>
+      <c r="D81"/>
       <c r="E81">
         <v>0</v>
       </c>
@@ -3042,9 +2883,7 @@
       <c r="C82">
         <v>5</v>
       </c>
-      <c r="D82">
-        <v>100</v>
-      </c>
+      <c r="D82"/>
       <c r="E82">
         <v>190</v>
       </c>
@@ -3066,9 +2905,7 @@
       <c r="C83">
         <v>5</v>
       </c>
-      <c r="D83">
-        <v>100</v>
-      </c>
+      <c r="D83"/>
       <c r="E83">
         <v>140</v>
       </c>
@@ -3081,29 +2918,26 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="3">
+      <c r="A84">
         <v>80</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" t="s">
         <v>98</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84">
         <v>100</v>
       </c>
-      <c r="D84" s="3">
-        <v>100</v>
-      </c>
-      <c r="E84" s="3">
+      <c r="D84"/>
+      <c r="E84">
         <v>38</v>
       </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" s="3" t="s">
+      <c r="F84"/>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" t="s">
         <v>23</v>
       </c>
-      <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
@@ -3115,9 +2949,7 @@
       <c r="C85">
         <v>5</v>
       </c>
-      <c r="D85">
-        <v>100</v>
-      </c>
+      <c r="D85"/>
       <c r="E85">
         <v>160</v>
       </c>
@@ -3139,9 +2971,7 @@
       <c r="C86">
         <v>5</v>
       </c>
-      <c r="D86">
-        <v>100</v>
-      </c>
+      <c r="D86"/>
       <c r="E86">
         <v>35</v>
       </c>
@@ -3163,9 +2993,7 @@
       <c r="C87">
         <v>5</v>
       </c>
-      <c r="D87">
-        <v>100</v>
-      </c>
+      <c r="D87"/>
       <c r="E87">
         <v>34</v>
       </c>
@@ -3187,9 +3015,7 @@
       <c r="C88">
         <v>0</v>
       </c>
-      <c r="D88">
-        <v>100</v>
-      </c>
+      <c r="D88"/>
       <c r="E88">
         <v>35</v>
       </c>
@@ -3211,9 +3037,7 @@
       <c r="C89">
         <v>5</v>
       </c>
-      <c r="D89">
-        <v>100</v>
-      </c>
+      <c r="D89"/>
       <c r="E89">
         <v>17</v>
       </c>
@@ -3235,9 +3059,7 @@
       <c r="C90">
         <v>0</v>
       </c>
-      <c r="D90">
-        <v>100</v>
-      </c>
+      <c r="D90"/>
       <c r="E90">
         <v>0</v>
       </c>
@@ -3259,9 +3081,7 @@
       <c r="C91">
         <v>0</v>
       </c>
-      <c r="D91">
-        <v>100</v>
-      </c>
+      <c r="D91"/>
       <c r="E91">
         <v>0</v>
       </c>
@@ -3283,9 +3103,7 @@
       <c r="C92">
         <v>0</v>
       </c>
-      <c r="D92">
-        <v>100</v>
-      </c>
+      <c r="D92"/>
       <c r="E92">
         <v>0</v>
       </c>
@@ -3307,9 +3125,7 @@
       <c r="C93">
         <v>0</v>
       </c>
-      <c r="D93">
-        <v>100</v>
-      </c>
+      <c r="D93"/>
       <c r="E93">
         <v>0</v>
       </c>
@@ -3331,9 +3147,7 @@
       <c r="C94">
         <v>0</v>
       </c>
-      <c r="D94">
-        <v>100</v>
-      </c>
+      <c r="D94"/>
       <c r="E94">
         <v>0</v>
       </c>
@@ -3355,9 +3169,7 @@
       <c r="C95">
         <v>5</v>
       </c>
-      <c r="D95">
-        <v>100</v>
-      </c>
+      <c r="D95"/>
       <c r="E95">
         <v>65</v>
       </c>
@@ -3379,9 +3191,7 @@
       <c r="C96">
         <v>5</v>
       </c>
-      <c r="D96">
-        <v>100</v>
-      </c>
+      <c r="D96"/>
       <c r="E96">
         <v>110</v>
       </c>
@@ -3403,9 +3213,7 @@
       <c r="C97">
         <v>0</v>
       </c>
-      <c r="D97">
-        <v>100</v>
-      </c>
+      <c r="D97"/>
       <c r="E97">
         <v>0</v>
       </c>
@@ -3427,9 +3235,7 @@
       <c r="C98">
         <v>5</v>
       </c>
-      <c r="D98">
-        <v>100</v>
-      </c>
+      <c r="D98"/>
       <c r="E98">
         <v>25</v>
       </c>
@@ -3451,9 +3257,7 @@
       <c r="C99">
         <v>0</v>
       </c>
-      <c r="D99">
-        <v>100</v>
-      </c>
+      <c r="D99"/>
       <c r="E99">
         <v>480</v>
       </c>
@@ -3475,9 +3279,7 @@
       <c r="C100">
         <v>0</v>
       </c>
-      <c r="D100">
-        <v>100</v>
-      </c>
+      <c r="D100"/>
       <c r="E100">
         <v>280</v>
       </c>
@@ -3499,9 +3301,7 @@
       <c r="C101">
         <v>0</v>
       </c>
-      <c r="D101">
-        <v>100</v>
-      </c>
+      <c r="D101"/>
       <c r="E101">
         <v>18</v>
       </c>
@@ -3523,9 +3323,7 @@
       <c r="C102">
         <v>5</v>
       </c>
-      <c r="D102">
-        <v>100</v>
-      </c>
+      <c r="D102"/>
       <c r="E102">
         <v>20</v>
       </c>
@@ -3547,9 +3345,7 @@
       <c r="C103">
         <v>5</v>
       </c>
-      <c r="D103">
-        <v>100</v>
-      </c>
+      <c r="D103"/>
       <c r="E103">
         <v>950</v>
       </c>
@@ -3571,9 +3367,7 @@
       <c r="C104">
         <v>5</v>
       </c>
-      <c r="D104">
-        <v>100</v>
-      </c>
+      <c r="D104"/>
       <c r="E104">
         <v>680</v>
       </c>
@@ -3595,9 +3389,7 @@
       <c r="C105">
         <v>5</v>
       </c>
-      <c r="D105">
-        <v>100</v>
-      </c>
+      <c r="D105"/>
       <c r="E105">
         <v>680</v>
       </c>
@@ -3619,9 +3411,7 @@
       <c r="C106">
         <v>5</v>
       </c>
-      <c r="D106">
-        <v>100</v>
-      </c>
+      <c r="D106"/>
       <c r="E106">
         <v>850</v>
       </c>
@@ -3643,9 +3433,7 @@
       <c r="C107">
         <v>5</v>
       </c>
-      <c r="D107">
-        <v>100</v>
-      </c>
+      <c r="D107"/>
       <c r="E107">
         <v>1100</v>
       </c>
@@ -3667,9 +3455,7 @@
       <c r="C108">
         <v>5</v>
       </c>
-      <c r="D108">
-        <v>100</v>
-      </c>
+      <c r="D108"/>
       <c r="E108">
         <v>1250</v>
       </c>
@@ -3691,9 +3477,7 @@
       <c r="C109">
         <v>5</v>
       </c>
-      <c r="D109">
-        <v>100</v>
-      </c>
+      <c r="D109"/>
       <c r="E109">
         <v>1400</v>
       </c>
@@ -3715,9 +3499,7 @@
       <c r="C110">
         <v>5</v>
       </c>
-      <c r="D110">
-        <v>100</v>
-      </c>
+      <c r="D110"/>
       <c r="E110">
         <v>1500</v>
       </c>
@@ -3739,9 +3521,7 @@
       <c r="C111">
         <v>5</v>
       </c>
-      <c r="D111">
-        <v>100</v>
-      </c>
+      <c r="D111"/>
       <c r="E111">
         <v>811</v>
       </c>
@@ -3763,9 +3543,7 @@
       <c r="C112">
         <v>5</v>
       </c>
-      <c r="D112">
-        <v>100</v>
-      </c>
+      <c r="D112"/>
       <c r="E112">
         <v>310</v>
       </c>
@@ -3787,9 +3565,7 @@
       <c r="C113">
         <v>5</v>
       </c>
-      <c r="D113">
-        <v>100</v>
-      </c>
+      <c r="D113"/>
       <c r="E113">
         <v>980</v>
       </c>
@@ -3811,9 +3587,7 @@
       <c r="C114">
         <v>5</v>
       </c>
-      <c r="D114">
-        <v>100</v>
-      </c>
+      <c r="D114"/>
       <c r="E114">
         <v>1012</v>
       </c>
@@ -3835,9 +3609,7 @@
       <c r="C115">
         <v>5</v>
       </c>
-      <c r="D115">
-        <v>100</v>
-      </c>
+      <c r="D115"/>
       <c r="E115">
         <v>350</v>
       </c>
@@ -3859,9 +3631,7 @@
       <c r="C116">
         <v>5</v>
       </c>
-      <c r="D116">
-        <v>100</v>
-      </c>
+      <c r="D116"/>
       <c r="E116">
         <v>1200</v>
       </c>
@@ -3883,9 +3653,7 @@
       <c r="C117">
         <v>5</v>
       </c>
-      <c r="D117">
-        <v>100</v>
-      </c>
+      <c r="D117"/>
       <c r="E117">
         <v>750</v>
       </c>
@@ -3907,9 +3675,7 @@
       <c r="C118">
         <v>5</v>
       </c>
-      <c r="D118">
-        <v>100</v>
-      </c>
+      <c r="D118"/>
       <c r="E118">
         <v>280</v>
       </c>
@@ -3931,9 +3697,7 @@
       <c r="C119">
         <v>5</v>
       </c>
-      <c r="D119">
-        <v>100</v>
-      </c>
+      <c r="D119"/>
       <c r="E119">
         <v>12</v>
       </c>
@@ -3955,9 +3719,7 @@
       <c r="C120">
         <v>5</v>
       </c>
-      <c r="D120">
-        <v>100</v>
-      </c>
+      <c r="D120"/>
       <c r="E120">
         <v>12</v>
       </c>
@@ -3979,9 +3741,7 @@
       <c r="C121">
         <v>5</v>
       </c>
-      <c r="D121">
-        <v>100</v>
-      </c>
+      <c r="D121"/>
       <c r="E121">
         <v>99</v>
       </c>
@@ -4003,9 +3763,7 @@
       <c r="C122">
         <v>5</v>
       </c>
-      <c r="D122">
-        <v>100</v>
-      </c>
+      <c r="D122"/>
       <c r="E122">
         <v>110</v>
       </c>
@@ -4027,9 +3785,7 @@
       <c r="C123">
         <v>5</v>
       </c>
-      <c r="D123">
-        <v>100</v>
-      </c>
+      <c r="D123"/>
       <c r="E123">
         <v>158</v>
       </c>
@@ -4051,9 +3807,7 @@
       <c r="C124">
         <v>2</v>
       </c>
-      <c r="D124">
-        <v>100</v>
-      </c>
+      <c r="D124"/>
       <c r="E124">
         <v>480</v>
       </c>
@@ -4075,9 +3829,7 @@
       <c r="C125">
         <v>2</v>
       </c>
-      <c r="D125">
-        <v>100</v>
-      </c>
+      <c r="D125"/>
       <c r="E125">
         <v>720</v>
       </c>
@@ -4099,9 +3851,7 @@
       <c r="C126">
         <v>0</v>
       </c>
-      <c r="D126">
-        <v>100</v>
-      </c>
+      <c r="D126"/>
       <c r="E126">
         <v>0</v>
       </c>
@@ -4123,9 +3873,7 @@
       <c r="C127">
         <v>0</v>
       </c>
-      <c r="D127">
-        <v>100</v>
-      </c>
+      <c r="D127"/>
       <c r="E127">
         <v>0</v>
       </c>
@@ -4147,9 +3895,7 @@
       <c r="C128">
         <v>0</v>
       </c>
-      <c r="D128">
-        <v>100</v>
-      </c>
+      <c r="D128"/>
       <c r="E128">
         <v>0</v>
       </c>
@@ -4171,9 +3917,7 @@
       <c r="C129">
         <v>0</v>
       </c>
-      <c r="D129">
-        <v>100</v>
-      </c>
+      <c r="D129"/>
       <c r="E129">
         <v>0</v>
       </c>
@@ -4195,9 +3939,7 @@
       <c r="C130">
         <v>5</v>
       </c>
-      <c r="D130">
-        <v>100</v>
-      </c>
+      <c r="D130"/>
       <c r="E130">
         <v>84</v>
       </c>
@@ -4219,9 +3961,7 @@
       <c r="C131">
         <v>5</v>
       </c>
-      <c r="D131">
-        <v>100</v>
-      </c>
+      <c r="D131"/>
       <c r="E131">
         <v>115</v>
       </c>
@@ -4243,9 +3983,7 @@
       <c r="C132">
         <v>0</v>
       </c>
-      <c r="D132">
-        <v>100</v>
-      </c>
+      <c r="D132"/>
       <c r="E132">
         <v>0</v>
       </c>
@@ -4258,28 +3996,29 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133">
+      <c r="A133" s="3">
         <v>129</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="3">
         <v>100</v>
       </c>
-      <c r="D133">
-        <v>98</v>
-      </c>
-      <c r="E133">
+      <c r="D133" s="3">
+        <v>100</v>
+      </c>
+      <c r="E133" s="3">
         <v>118</v>
       </c>
-      <c r="F133"/>
-      <c r="G133" t="s">
-        <v>19</v>
-      </c>
-      <c r="H133" t="s">
+      <c r="F133" s="3"/>
+      <c r="G133" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="I133" s="3"/>
     </row>
     <row r="134" spans="1:9">
       <c r="A134">
@@ -4291,9 +4030,7 @@
       <c r="C134">
         <v>0</v>
       </c>
-      <c r="D134">
-        <v>100</v>
-      </c>
+      <c r="D134"/>
       <c r="E134">
         <v>0</v>
       </c>
@@ -4306,29 +4043,26 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="3">
+      <c r="A135">
         <v>131</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" t="s">
         <v>150</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135">
         <v>100</v>
       </c>
-      <c r="D135" s="3">
-        <v>100</v>
-      </c>
-      <c r="E135" s="3">
-        <v>0</v>
-      </c>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H135" s="3" t="s">
+      <c r="D135"/>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135"/>
+      <c r="G135" t="s">
+        <v>19</v>
+      </c>
+      <c r="H135" t="s">
         <v>32</v>
       </c>
-      <c r="I135" s="3"/>
     </row>
     <row r="136" spans="1:9">
       <c r="A136">
@@ -4340,9 +4074,7 @@
       <c r="C136">
         <v>0</v>
       </c>
-      <c r="D136">
-        <v>100</v>
-      </c>
+      <c r="D136"/>
       <c r="E136">
         <v>0</v>
       </c>
@@ -4388,9 +4120,7 @@
       <c r="C138">
         <v>0</v>
       </c>
-      <c r="D138">
-        <v>100</v>
-      </c>
+      <c r="D138"/>
       <c r="E138">
         <v>0</v>
       </c>
@@ -4412,9 +4142,7 @@
       <c r="C139">
         <v>50</v>
       </c>
-      <c r="D139">
-        <v>100</v>
-      </c>
+      <c r="D139"/>
       <c r="E139">
         <v>195</v>
       </c>
@@ -4436,9 +4164,7 @@
       <c r="C140">
         <v>10</v>
       </c>
-      <c r="D140">
-        <v>100</v>
-      </c>
+      <c r="D140"/>
       <c r="E140">
         <v>520</v>
       </c>
@@ -4460,9 +4186,7 @@
       <c r="C141">
         <v>10</v>
       </c>
-      <c r="D141">
-        <v>100</v>
-      </c>
+      <c r="D141"/>
       <c r="E141">
         <v>350</v>
       </c>
@@ -4484,9 +4208,7 @@
       <c r="C142">
         <v>10</v>
       </c>
-      <c r="D142">
-        <v>100</v>
-      </c>
+      <c r="D142"/>
       <c r="E142">
         <v>320</v>
       </c>
@@ -4508,9 +4230,7 @@
       <c r="C143">
         <v>50</v>
       </c>
-      <c r="D143">
-        <v>100</v>
-      </c>
+      <c r="D143"/>
       <c r="E143">
         <v>480</v>
       </c>
@@ -4532,9 +4252,7 @@
       <c r="C144">
         <v>0</v>
       </c>
-      <c r="D144">
-        <v>100</v>
-      </c>
+      <c r="D144"/>
       <c r="E144">
         <v>77</v>
       </c>
@@ -4556,9 +4274,7 @@
       <c r="C145">
         <v>0</v>
       </c>
-      <c r="D145">
-        <v>100</v>
-      </c>
+      <c r="D145"/>
       <c r="E145">
         <v>75</v>
       </c>
@@ -4580,9 +4296,7 @@
       <c r="C146">
         <v>0</v>
       </c>
-      <c r="D146">
-        <v>100</v>
-      </c>
+      <c r="D146"/>
       <c r="E146">
         <v>75</v>
       </c>
@@ -4604,9 +4318,7 @@
       <c r="C147">
         <v>0</v>
       </c>
-      <c r="D147">
-        <v>100</v>
-      </c>
+      <c r="D147"/>
       <c r="E147">
         <v>55</v>
       </c>
@@ -4628,9 +4340,7 @@
       <c r="C148">
         <v>0</v>
       </c>
-      <c r="D148">
-        <v>100</v>
-      </c>
+      <c r="D148"/>
       <c r="E148">
         <v>48</v>
       </c>
@@ -4652,9 +4362,7 @@
       <c r="C149">
         <v>0</v>
       </c>
-      <c r="D149">
-        <v>100</v>
-      </c>
+      <c r="D149"/>
       <c r="E149">
         <v>48</v>
       </c>
@@ -4676,9 +4384,7 @@
       <c r="C150">
         <v>0</v>
       </c>
-      <c r="D150">
-        <v>100</v>
-      </c>
+      <c r="D150"/>
       <c r="E150">
         <v>48</v>
       </c>
@@ -4700,9 +4406,7 @@
       <c r="C151">
         <v>0</v>
       </c>
-      <c r="D151">
-        <v>100</v>
-      </c>
+      <c r="D151"/>
       <c r="E151">
         <v>48</v>
       </c>
@@ -4724,9 +4428,7 @@
       <c r="C152">
         <v>0</v>
       </c>
-      <c r="D152">
-        <v>100</v>
-      </c>
+      <c r="D152"/>
       <c r="E152">
         <v>55</v>
       </c>
@@ -4748,9 +4450,7 @@
       <c r="C153">
         <v>0</v>
       </c>
-      <c r="D153">
-        <v>100</v>
-      </c>
+      <c r="D153"/>
       <c r="E153">
         <v>55</v>
       </c>
@@ -4772,9 +4472,7 @@
       <c r="C154">
         <v>0</v>
       </c>
-      <c r="D154">
-        <v>100</v>
-      </c>
+      <c r="D154"/>
       <c r="E154">
         <v>55</v>
       </c>
@@ -4796,9 +4494,7 @@
       <c r="C155">
         <v>0</v>
       </c>
-      <c r="D155">
-        <v>100</v>
-      </c>
+      <c r="D155"/>
       <c r="E155">
         <v>55</v>
       </c>
@@ -4820,9 +4516,7 @@
       <c r="C156">
         <v>0</v>
       </c>
-      <c r="D156">
-        <v>100</v>
-      </c>
+      <c r="D156"/>
       <c r="E156">
         <v>55</v>
       </c>
@@ -4844,9 +4538,7 @@
       <c r="C157">
         <v>0</v>
       </c>
-      <c r="D157">
-        <v>100</v>
-      </c>
+      <c r="D157"/>
       <c r="E157">
         <v>55</v>
       </c>
@@ -4868,9 +4560,7 @@
       <c r="C158">
         <v>5</v>
       </c>
-      <c r="D158">
-        <v>100</v>
-      </c>
+      <c r="D158"/>
       <c r="E158">
         <v>28</v>
       </c>
@@ -4892,9 +4582,7 @@
       <c r="C159">
         <v>50</v>
       </c>
-      <c r="D159">
-        <v>100</v>
-      </c>
+      <c r="D159"/>
       <c r="E159">
         <v>190</v>
       </c>
@@ -4916,9 +4604,7 @@
       <c r="C160">
         <v>50</v>
       </c>
-      <c r="D160">
-        <v>100</v>
-      </c>
+      <c r="D160"/>
       <c r="E160">
         <v>140</v>
       </c>
@@ -4940,9 +4626,7 @@
       <c r="C161">
         <v>50</v>
       </c>
-      <c r="D161">
-        <v>100</v>
-      </c>
+      <c r="D161"/>
       <c r="E161">
         <v>154</v>
       </c>
@@ -4955,104 +4639,92 @@
       </c>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="3">
+      <c r="A162">
         <v>158</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" t="s">
         <v>177</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162">
         <v>100</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162"/>
+      <c r="E162">
+        <v>56</v>
+      </c>
+      <c r="F162"/>
+      <c r="G162" t="s">
+        <v>19</v>
+      </c>
+      <c r="H162" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163">
+        <v>159</v>
+      </c>
+      <c r="B163" t="s">
+        <v>178</v>
+      </c>
+      <c r="C163">
         <v>100</v>
       </c>
-      <c r="E162" s="3">
+      <c r="D163"/>
+      <c r="E163">
+        <v>46</v>
+      </c>
+      <c r="F163"/>
+      <c r="G163" t="s">
+        <v>19</v>
+      </c>
+      <c r="H163" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164">
+        <v>160</v>
+      </c>
+      <c r="B164" t="s">
+        <v>179</v>
+      </c>
+      <c r="C164">
+        <v>100</v>
+      </c>
+      <c r="D164"/>
+      <c r="E164">
         <v>56</v>
       </c>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H162" s="3" t="s">
+      <c r="F164"/>
+      <c r="G164" t="s">
+        <v>19</v>
+      </c>
+      <c r="H164" t="s">
         <v>23</v>
       </c>
-      <c r="I162" s="3"/>
-    </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="3">
-        <v>159</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C163" s="3">
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165">
+        <v>161</v>
+      </c>
+      <c r="B165" t="s">
+        <v>180</v>
+      </c>
+      <c r="C165">
         <v>100</v>
       </c>
-      <c r="D163" s="3">
-        <v>100</v>
-      </c>
-      <c r="E163" s="3">
-        <v>46</v>
-      </c>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H163" s="3" t="s">
+      <c r="D165"/>
+      <c r="E165">
+        <v>67</v>
+      </c>
+      <c r="F165"/>
+      <c r="G165" t="s">
+        <v>19</v>
+      </c>
+      <c r="H165" t="s">
         <v>23</v>
       </c>
-      <c r="I163" s="3"/>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="3">
-        <v>160</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C164" s="3">
-        <v>100</v>
-      </c>
-      <c r="D164" s="3">
-        <v>100</v>
-      </c>
-      <c r="E164" s="3">
-        <v>56</v>
-      </c>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H164" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I164" s="3"/>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="3">
-        <v>161</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C165" s="3">
-        <v>100</v>
-      </c>
-      <c r="D165" s="3">
-        <v>100</v>
-      </c>
-      <c r="E165" s="3">
-        <v>67</v>
-      </c>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H165" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I165" s="3"/>
     </row>
     <row r="166" spans="1:9">
       <c r="A166">
@@ -5064,9 +4736,7 @@
       <c r="C166">
         <v>50</v>
       </c>
-      <c r="D166">
-        <v>100</v>
-      </c>
+      <c r="D166"/>
       <c r="E166">
         <v>98</v>
       </c>
@@ -5088,9 +4758,7 @@
       <c r="C167">
         <v>0</v>
       </c>
-      <c r="D167">
-        <v>100</v>
-      </c>
+      <c r="D167"/>
       <c r="E167">
         <v>0</v>
       </c>
@@ -5112,9 +4780,7 @@
       <c r="C168">
         <v>5</v>
       </c>
-      <c r="D168">
-        <v>100</v>
-      </c>
+      <c r="D168"/>
       <c r="E168">
         <v>25</v>
       </c>
@@ -5136,9 +4802,7 @@
       <c r="C169">
         <v>5</v>
       </c>
-      <c r="D169">
-        <v>100</v>
-      </c>
+      <c r="D169"/>
       <c r="E169">
         <v>40</v>
       </c>
@@ -5160,9 +4824,7 @@
       <c r="C170">
         <v>5</v>
       </c>
-      <c r="D170">
-        <v>100</v>
-      </c>
+      <c r="D170"/>
       <c r="E170">
         <v>10</v>
       </c>
@@ -5184,9 +4846,7 @@
       <c r="C171">
         <v>0</v>
       </c>
-      <c r="D171">
-        <v>100</v>
-      </c>
+      <c r="D171"/>
       <c r="E171">
         <v>0</v>
       </c>
@@ -5208,9 +4868,7 @@
       <c r="C172">
         <v>10</v>
       </c>
-      <c r="D172">
-        <v>100</v>
-      </c>
+      <c r="D172"/>
       <c r="E172">
         <v>250</v>
       </c>
@@ -5232,9 +4890,7 @@
       <c r="C173">
         <v>0</v>
       </c>
-      <c r="D173">
-        <v>100</v>
-      </c>
+      <c r="D173"/>
       <c r="E173">
         <v>0</v>
       </c>
@@ -5256,9 +4912,7 @@
       <c r="C174">
         <v>10</v>
       </c>
-      <c r="D174">
-        <v>100</v>
-      </c>
+      <c r="D174"/>
       <c r="E174">
         <v>350</v>
       </c>
@@ -5280,9 +4934,7 @@
       <c r="C175">
         <v>0</v>
       </c>
-      <c r="D175">
-        <v>100</v>
-      </c>
+      <c r="D175"/>
       <c r="E175">
         <v>0</v>
       </c>
@@ -5304,9 +4956,7 @@
       <c r="C176">
         <v>10</v>
       </c>
-      <c r="D176">
-        <v>100</v>
-      </c>
+      <c r="D176"/>
       <c r="E176">
         <v>100</v>
       </c>
@@ -5328,9 +4978,7 @@
       <c r="C177">
         <v>5</v>
       </c>
-      <c r="D177">
-        <v>100</v>
-      </c>
+      <c r="D177"/>
       <c r="E177">
         <v>180</v>
       </c>
@@ -5352,9 +5000,7 @@
       <c r="C178">
         <v>60</v>
       </c>
-      <c r="D178">
-        <v>100</v>
-      </c>
+      <c r="D178"/>
       <c r="E178">
         <v>35</v>
       </c>
@@ -5376,9 +5022,7 @@
       <c r="C179">
         <v>60</v>
       </c>
-      <c r="D179">
-        <v>100</v>
-      </c>
+      <c r="D179"/>
       <c r="E179">
         <v>89</v>
       </c>
@@ -5400,9 +5044,7 @@
       <c r="C180">
         <v>5</v>
       </c>
-      <c r="D180">
-        <v>100</v>
-      </c>
+      <c r="D180"/>
       <c r="E180">
         <v>99</v>
       </c>
@@ -5424,9 +5066,7 @@
       <c r="C181">
         <v>5</v>
       </c>
-      <c r="D181">
-        <v>100</v>
-      </c>
+      <c r="D181"/>
       <c r="E181">
         <v>25</v>
       </c>
@@ -5448,9 +5088,7 @@
       <c r="C182">
         <v>0</v>
       </c>
-      <c r="D182">
-        <v>100</v>
-      </c>
+      <c r="D182"/>
       <c r="E182">
         <v>1200</v>
       </c>
@@ -5472,9 +5110,7 @@
       <c r="C183">
         <v>0</v>
       </c>
-      <c r="D183">
-        <v>100</v>
-      </c>
+      <c r="D183"/>
       <c r="E183">
         <v>350</v>
       </c>
@@ -5496,9 +5132,7 @@
       <c r="C184">
         <v>0</v>
       </c>
-      <c r="D184">
-        <v>100</v>
-      </c>
+      <c r="D184"/>
       <c r="E184">
         <v>11500</v>
       </c>
@@ -5520,9 +5154,7 @@
       <c r="C185">
         <v>0</v>
       </c>
-      <c r="D185">
-        <v>100</v>
-      </c>
+      <c r="D185"/>
       <c r="E185">
         <v>1600</v>
       </c>
@@ -5544,9 +5176,7 @@
       <c r="C186">
         <v>0</v>
       </c>
-      <c r="D186">
-        <v>100</v>
-      </c>
+      <c r="D186"/>
       <c r="E186">
         <v>410</v>
       </c>
@@ -5568,9 +5198,7 @@
       <c r="C187">
         <v>0</v>
       </c>
-      <c r="D187">
-        <v>100</v>
-      </c>
+      <c r="D187"/>
       <c r="E187">
         <v>0</v>
       </c>
@@ -5592,9 +5220,7 @@
       <c r="C188">
         <v>0</v>
       </c>
-      <c r="D188">
-        <v>100</v>
-      </c>
+      <c r="D188"/>
       <c r="E188">
         <v>55</v>
       </c>
@@ -5616,9 +5242,7 @@
       <c r="C189">
         <v>5</v>
       </c>
-      <c r="D189">
-        <v>100</v>
-      </c>
+      <c r="D189"/>
       <c r="E189">
         <v>0</v>
       </c>
@@ -5640,9 +5264,7 @@
       <c r="C190">
         <v>5</v>
       </c>
-      <c r="D190">
-        <v>100</v>
-      </c>
+      <c r="D190"/>
       <c r="E190">
         <v>45</v>
       </c>
@@ -5664,9 +5286,7 @@
       <c r="C191">
         <v>5</v>
       </c>
-      <c r="D191">
-        <v>100</v>
-      </c>
+      <c r="D191"/>
       <c r="E191">
         <v>0</v>
       </c>
@@ -5688,9 +5308,7 @@
       <c r="C192">
         <v>10</v>
       </c>
-      <c r="D192">
-        <v>100</v>
-      </c>
+      <c r="D192"/>
       <c r="E192">
         <v>15</v>
       </c>
@@ -5712,9 +5330,7 @@
       <c r="C193">
         <v>10</v>
       </c>
-      <c r="D193">
-        <v>100</v>
-      </c>
+      <c r="D193"/>
       <c r="E193">
         <v>0</v>
       </c>
@@ -5736,9 +5352,7 @@
       <c r="C194">
         <v>0</v>
       </c>
-      <c r="D194">
-        <v>100</v>
-      </c>
+      <c r="D194"/>
       <c r="E194">
         <v>199</v>
       </c>
@@ -5760,9 +5374,7 @@
       <c r="C195">
         <v>0</v>
       </c>
-      <c r="D195">
-        <v>100</v>
-      </c>
+      <c r="D195"/>
       <c r="E195">
         <v>120</v>
       </c>
@@ -5784,9 +5396,7 @@
       <c r="C196">
         <v>0</v>
       </c>
-      <c r="D196">
-        <v>100</v>
-      </c>
+      <c r="D196"/>
       <c r="E196">
         <v>38</v>
       </c>
@@ -5808,9 +5418,7 @@
       <c r="C197">
         <v>0</v>
       </c>
-      <c r="D197">
-        <v>100</v>
-      </c>
+      <c r="D197"/>
       <c r="E197">
         <v>48</v>
       </c>
@@ -5832,9 +5440,7 @@
       <c r="C198">
         <v>0</v>
       </c>
-      <c r="D198">
-        <v>100</v>
-      </c>
+      <c r="D198"/>
       <c r="E198">
         <v>25</v>
       </c>
@@ -5856,9 +5462,7 @@
       <c r="C199">
         <v>0</v>
       </c>
-      <c r="D199">
-        <v>100</v>
-      </c>
+      <c r="D199"/>
       <c r="E199">
         <v>38</v>
       </c>
@@ -5880,9 +5484,7 @@
       <c r="C200">
         <v>5</v>
       </c>
-      <c r="D200">
-        <v>100</v>
-      </c>
+      <c r="D200"/>
       <c r="E200">
         <v>990</v>
       </c>
@@ -5904,9 +5506,7 @@
       <c r="C201">
         <v>5</v>
       </c>
-      <c r="D201">
-        <v>100</v>
-      </c>
+      <c r="D201"/>
       <c r="E201">
         <v>390</v>
       </c>
@@ -5928,9 +5528,7 @@
       <c r="C202">
         <v>5</v>
       </c>
-      <c r="D202">
-        <v>100</v>
-      </c>
+      <c r="D202"/>
       <c r="E202">
         <v>900</v>
       </c>
@@ -5952,9 +5550,7 @@
       <c r="C203">
         <v>5</v>
       </c>
-      <c r="D203">
-        <v>100</v>
-      </c>
+      <c r="D203"/>
       <c r="E203">
         <v>920</v>
       </c>
@@ -5976,9 +5572,7 @@
       <c r="C204">
         <v>5</v>
       </c>
-      <c r="D204">
-        <v>100</v>
-      </c>
+      <c r="D204"/>
       <c r="E204">
         <v>420</v>
       </c>
@@ -6000,9 +5594,7 @@
       <c r="C205">
         <v>5</v>
       </c>
-      <c r="D205">
-        <v>100</v>
-      </c>
+      <c r="D205"/>
       <c r="E205">
         <v>1200</v>
       </c>
@@ -6024,9 +5616,7 @@
       <c r="C206">
         <v>5</v>
       </c>
-      <c r="D206">
-        <v>100</v>
-      </c>
+      <c r="D206"/>
       <c r="E206">
         <v>980</v>
       </c>
@@ -6048,9 +5638,7 @@
       <c r="C207">
         <v>5</v>
       </c>
-      <c r="D207">
-        <v>100</v>
-      </c>
+      <c r="D207"/>
       <c r="E207">
         <v>185</v>
       </c>
@@ -6072,9 +5660,7 @@
       <c r="C208">
         <v>5</v>
       </c>
-      <c r="D208">
-        <v>100</v>
-      </c>
+      <c r="D208"/>
       <c r="E208">
         <v>0</v>
       </c>
@@ -6096,9 +5682,7 @@
       <c r="C209">
         <v>5</v>
       </c>
-      <c r="D209">
-        <v>100</v>
-      </c>
+      <c r="D209"/>
       <c r="E209">
         <v>84</v>
       </c>
@@ -6120,9 +5704,7 @@
       <c r="C210">
         <v>20</v>
       </c>
-      <c r="D210">
-        <v>100</v>
-      </c>
+      <c r="D210"/>
       <c r="E210">
         <v>30</v>
       </c>
@@ -6144,9 +5726,7 @@
       <c r="C211">
         <v>1</v>
       </c>
-      <c r="D211">
-        <v>100</v>
-      </c>
+      <c r="D211"/>
       <c r="E211">
         <v>4500</v>
       </c>
@@ -6168,9 +5748,7 @@
       <c r="C212">
         <v>1</v>
       </c>
-      <c r="D212">
-        <v>100</v>
-      </c>
+      <c r="D212"/>
       <c r="E212">
         <v>3500</v>
       </c>
@@ -6192,9 +5770,7 @@
       <c r="C213">
         <v>20</v>
       </c>
-      <c r="D213">
-        <v>100</v>
-      </c>
+      <c r="D213"/>
       <c r="E213">
         <v>55</v>
       </c>
@@ -6216,9 +5792,7 @@
       <c r="C214">
         <v>1</v>
       </c>
-      <c r="D214">
-        <v>100</v>
-      </c>
+      <c r="D214"/>
       <c r="E214">
         <v>2750</v>
       </c>
@@ -6240,9 +5814,7 @@
       <c r="C215">
         <v>1</v>
       </c>
-      <c r="D215">
-        <v>100</v>
-      </c>
+      <c r="D215"/>
       <c r="E215">
         <v>1500</v>
       </c>
@@ -6255,29 +5827,26 @@
       </c>
     </row>
     <row r="216" spans="1:9">
-      <c r="A216" s="3">
+      <c r="A216">
         <v>212</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" t="s">
         <v>233</v>
       </c>
-      <c r="C216" s="3">
+      <c r="C216">
         <v>100</v>
       </c>
-      <c r="D216" s="3">
-        <v>100</v>
-      </c>
-      <c r="E216" s="3">
+      <c r="D216"/>
+      <c r="E216">
         <v>15</v>
       </c>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3" t="s">
+      <c r="F216"/>
+      <c r="G216" t="s">
         <v>226</v>
       </c>
-      <c r="H216" s="3" t="s">
+      <c r="H216" t="s">
         <v>227</v>
       </c>
-      <c r="I216" s="3"/>
     </row>
     <row r="217" spans="1:9">
       <c r="A217">
@@ -6289,9 +5858,7 @@
       <c r="C217">
         <v>1</v>
       </c>
-      <c r="D217">
-        <v>100</v>
-      </c>
+      <c r="D217"/>
       <c r="E217">
         <v>2450</v>
       </c>
@@ -6313,9 +5880,7 @@
       <c r="C218">
         <v>20</v>
       </c>
-      <c r="D218">
-        <v>100</v>
-      </c>
+      <c r="D218"/>
       <c r="E218">
         <v>45</v>
       </c>
@@ -6337,9 +5902,7 @@
       <c r="C219">
         <v>30</v>
       </c>
-      <c r="D219">
-        <v>100</v>
-      </c>
+      <c r="D219"/>
       <c r="E219">
         <v>35</v>
       </c>
@@ -6361,9 +5924,7 @@
       <c r="C220">
         <v>0</v>
       </c>
-      <c r="D220">
-        <v>100</v>
-      </c>
+      <c r="D220"/>
       <c r="E220">
         <v>150</v>
       </c>
@@ -6385,9 +5946,7 @@
       <c r="C221">
         <v>0</v>
       </c>
-      <c r="D221">
-        <v>100</v>
-      </c>
+      <c r="D221"/>
       <c r="E221">
         <v>0</v>
       </c>
@@ -6409,9 +5968,7 @@
       <c r="C222">
         <v>0</v>
       </c>
-      <c r="D222">
-        <v>100</v>
-      </c>
+      <c r="D222"/>
       <c r="E222">
         <v>0</v>
       </c>
@@ -6433,9 +5990,7 @@
       <c r="C223">
         <v>0</v>
       </c>
-      <c r="D223">
-        <v>100</v>
-      </c>
+      <c r="D223"/>
       <c r="E223">
         <v>0</v>
       </c>
@@ -6457,9 +6012,7 @@
       <c r="C224">
         <v>0</v>
       </c>
-      <c r="D224">
-        <v>100</v>
-      </c>
+      <c r="D224"/>
       <c r="E224">
         <v>0</v>
       </c>
@@ -6481,9 +6034,7 @@
       <c r="C225">
         <v>0</v>
       </c>
-      <c r="D225">
-        <v>100</v>
-      </c>
+      <c r="D225"/>
       <c r="E225">
         <v>0</v>
       </c>
@@ -6505,9 +6056,7 @@
       <c r="C226">
         <v>0</v>
       </c>
-      <c r="D226">
-        <v>100</v>
-      </c>
+      <c r="D226"/>
       <c r="E226">
         <v>75</v>
       </c>
